--- a/files/DORA_Requirements_v2.xlsx
+++ b/files/DORA_Requirements_v2.xlsx
@@ -1624,9 +1624,9 @@
   <dimension ref="A1:N239"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="K37" activeCellId="0" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1641,7 +1641,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="5.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="21.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="15.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="80.43"/>
